--- a/skrum_docs/04_SpecificDesign/06_Navigation_ヘッダー・サイドバー画面仕様書_20170709.xlsx
+++ b/skrum_docs/04_SpecificDesign/06_Navigation_ヘッダー・サイドバー画面仕様書_20170709.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/07_プロダクト開発/プロダクト資料/03_詳細設計/画面仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/04_SpecificDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2546,15 +2546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2563,7 +2563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2882900" y="1892300"/>
+          <a:off x="2895600" y="2298700"/>
           <a:ext cx="1257300" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2651,15 +2651,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2682,7 +2682,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="1905000"/>
+          <a:off x="2565400" y="2311400"/>
           <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3177,14 +3177,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3193,7 +3193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="10718800"/>
+          <a:off x="2895600" y="11163300"/>
           <a:ext cx="1257300" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3282,14 +3282,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3312,7 +3312,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2565400" y="10731500"/>
+          <a:off x="2565400" y="11176000"/>
           <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3843,14 +3843,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3859,7 +3859,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="19735800"/>
+          <a:off x="2895600" y="20574000"/>
           <a:ext cx="1257300" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3948,14 +3948,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3978,7 +3978,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="19748500"/>
+          <a:off x="2590800" y="20586700"/>
           <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4306,15 +4306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4323,13 +4323,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="165100" y="20777200"/>
-          <a:ext cx="3022600" cy="2146300"/>
+          <a:off x="139700" y="21539200"/>
+          <a:ext cx="3022600" cy="2921000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 30696"/>
-            <a:gd name="adj2" fmla="val -77419"/>
+            <a:gd name="adj1" fmla="val 31956"/>
+            <a:gd name="adj2" fmla="val -68723"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -4366,35 +4366,81 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>user_setting.svg</a:t>
+            <a:t>user_setting.png</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>group_setting.svg</a:t>
+            <a:t>group_setting.png</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>company_setting.svg</a:t>
+            <a:t>company_setting.png</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>timeframe_setting.svg</a:t>
+            <a:t>timeframe_setting.png</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>csv_setting.png</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>email_setting.png</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>password_change.svg</a:t>
+            <a:t>password_change.png</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -4646,14 +4692,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4676,7 +4722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="27647900"/>
+          <a:off x="2514600" y="28498800"/>
           <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4862,35 +4908,80 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="1866900"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="四角形吹き出し 77"/>
+        <xdr:cNvPr id="96" name="正方形/長方形 95"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1435100"/>
-          <a:ext cx="3035300" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -55302"/>
-            <a:gd name="adj2" fmla="val 9025"/>
-          </a:avLst>
-        </a:prstGeom>
+          <a:off x="2895600" y="1841500"/>
+          <a:ext cx="1257300" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4909,48 +5000,93 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>/setting/group</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>メール設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2578100" y="10744200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="四角形吹き出し 78"/>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1879600"/>
-          <a:ext cx="3035300" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -55302"/>
-            <a:gd name="adj2" fmla="val 9025"/>
-          </a:avLst>
-        </a:prstGeom>
+          <a:off x="2908300" y="10718800"/>
+          <a:ext cx="1257300" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4969,48 +5105,93 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>/setting/password</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>メール設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="図 98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2603500" y="20193000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="四角形吹き出し 92"/>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="9829800"/>
-          <a:ext cx="3035300" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -55302"/>
-            <a:gd name="adj2" fmla="val 9025"/>
-          </a:avLst>
-        </a:prstGeom>
+          <a:off x="2933700" y="20167600"/>
+          <a:ext cx="1257300" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5029,48 +5210,93 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>/setting/user</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>メール設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2578100" y="19761200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="四角形吹き出し 93"/>
+        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4165600" y="18808700"/>
-          <a:ext cx="3035300" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -55302"/>
-            <a:gd name="adj2" fmla="val 9025"/>
-          </a:avLst>
-        </a:prstGeom>
+          <a:off x="2908300" y="19761200"/>
+          <a:ext cx="1358900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5089,77 +5315,109 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>/setting/company</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="四角形吹き出し 94"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4165600" y="19304000"/>
-          <a:ext cx="3035300" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -55302"/>
-            <a:gd name="adj2" fmla="val 9025"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t>/setting/timeframe</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="28105100"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2501900" y="27673300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
